--- a/biology/Botanique/Albizia_lebbeck/Albizia_lebbeck.xlsx
+++ b/biology/Botanique/Albizia_lebbeck/Albizia_lebbeck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albizia lebbeck (hindi : शिरीष sirīs), ou bois noir des Bas est une espèce d'arbre de la famille des Fabaceae, originaire des régions tropicales du Sud de l'Asie et largement cultivée et naturalisée dans d'autres régions tropicales et subtropicales.
 </t>
@@ -513,14 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-Albizia lebbeck est un arbre qui atteint 18 à 30 m de haut avec un tronc de 50 cm à 1 m de diamètre. Son bois, très foncé et dense, est recherché pour la tournerie[1].
-Feuilles
-Les feuilles sont caduques. Elles sont bipennées, de 7,5 à 15 cm de long, avec de une à quatre paires de pennes, chaque penne ayant 6 à 18 folioles.
-Fleurs
-Les fleurs sont blanches, crème ou jaune pâle verdâtre, en aigrettes, avec de nombreuses étamines de 2,5 à 3,8 cm de long. Les fleurs sont mellifères, très parfumées mais allergènes[1],[2].
-Fruits
-Les fruits sont des gousses couleur paille de 15 à 30 cm de long et de 2,5 à 5,0 cm de large, contenant six à douze graines. Ils bruissent au vent[2],[3]. Les graines sont essentiellement dispersées par zoochorie, les sucs digestifs du bétail les scarifiant[2].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albizia lebbeck est un arbre qui atteint 18 à 30 m de haut avec un tronc de 50 cm à 1 m de diamètre. Son bois, très foncé et dense, est recherché pour la tournerie.
 </t>
         </is>
       </c>
@@ -546,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Caractère envahissant</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'espèce peut avoir un caractère envahissant. C'est le cas notamment en Nouvelle-Calédonie[4], où elle a été introduite comme arbre d'ombrage dans les caféières[1],[2].
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont caduques. Elles sont bipennées, de 7,5 à 15 cm de long, avec de une à quatre paires de pennes, chaque penne ayant 6 à 18 folioles.
 </t>
         </is>
       </c>
@@ -577,13 +594,122 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont blanches, crème ou jaune pâle verdâtre, en aigrettes, avec de nombreuses étamines de 2,5 à 3,8 cm de long. Les fleurs sont mellifères, très parfumées mais allergènes,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Albizia_lebbeck</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albizia_lebbeck</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des gousses couleur paille de 15 à 30 cm de long et de 2,5 à 5,0 cm de large, contenant six à douze graines. Ils bruissent au vent,. Les graines sont essentiellement dispersées par zoochorie, les sucs digestifs du bétail les scarifiant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Albizia_lebbeck</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albizia_lebbeck</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Caractère envahissant</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce peut avoir un caractère envahissant. C'est le cas notamment en Nouvelle-Calédonie, où elle a été introduite comme arbre d'ombrage dans les caféières,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Albizia_lebbeck</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albizia_lebbeck</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'histoire taxonomique de A. lebbeck est quelque peu alambiquée. Il a été initialement décrit par Carl von Linné comme Mimosa lebbeck. George Bentham a placé l'espèce dans son genre actuel mais d'autres auteurs croyant que la plante décrite par Linné était Albizia kalkora décrit par Prain (basé sur le Mimosa kalkora de William Roxburgh) ont appelé à tort cette espèce Albizia lebbeck. En plus, Francisco Manuel Blanco a utilisé Mimosa lebbeck pour Albizia retusa ssp. retusa. En outre, l'épithète spécifique est parfois orthographié à tort lebbek[5].
-Les synonymes juniors sont[6] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'histoire taxonomique de A. lebbeck est quelque peu alambiquée. Il a été initialement décrit par Carl von Linné comme Mimosa lebbeck. George Bentham a placé l'espèce dans son genre actuel mais d'autres auteurs croyant que la plante décrite par Linné était Albizia kalkora décrit par Prain (basé sur le Mimosa kalkora de William Roxburgh) ont appelé à tort cette espèce Albizia lebbeck. En plus, Francisco Manuel Blanco a utilisé Mimosa lebbeck pour Albizia retusa ssp. retusa. En outre, l'épithète spécifique est parfois orthographié à tort lebbek.
+Les synonymes juniors sont :
 Acacia lebbeck (L.) Willd.
 Acacia macrophylla Bunge
 Acacia speciosa (Jacq.) Willd.
@@ -602,9 +728,44 @@
 Mimosa speciosa Thunb. ou Albizia julibrissin.
 Pithecellobium splitgerberianum Miq.
 Il existe aussi un genre appelé Lebeckia, en référence à Lebbeck. Il n'est cependant pas associé étroitement à A. lebeck mais est membre de la sous-famille des Faboideae.
-Noms vernaculaires
-Étant l'une des espèces d'Albizia les plus répandues et communes dans le monde entier, il est souvent appelé simplement « Siris » bien que ce nom puisse renvoyer à n'importe quelle espèce localement commune du genre[7]. En ourdou, il est appelé « Saras سرس » et dans le Pendjab pakistanais son nom est « sareenh سرینھ ».
-Aux Antilles, du fait du bruissement que produisent les gousses agitées par le vent, il est dénommé «Langue de vieilles femmes»[8].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Albizia_lebbeck</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albizia_lebbeck</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étant l'une des espèces d'Albizia les plus répandues et communes dans le monde entier, il est souvent appelé simplement « Siris » bien que ce nom puisse renvoyer à n'importe quelle espèce localement commune du genre. En ourdou, il est appelé « Saras سرس » et dans le Pendjab pakistanais son nom est « sareenh سرینھ ».
+Aux Antilles, du fait du bruissement que produisent les gousses agitées par le vent, il est dénommé «Langue de vieilles femmes».
 </t>
         </is>
       </c>
